--- a/media/BAJAJ-PL/MIS/FEB 22/BAJAJ-PL TC MIS.xlsx
+++ b/media/BAJAJ-PL/MIS/FEB 22/BAJAJ-PL TC MIS.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MORE THAN DEMAND PAYOUT%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>LESS THAN DEMAND PAYOUT%</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MORE THAN DEMAND PAYOUT%</t>
         </is>
       </c>
     </row>
@@ -472,11 +472,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>120186</v>
+        <v>76668</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>333104</v>
+        <v>109655</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
     </row>
@@ -522,16 +522,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>111358</v>
+        <v>240187</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2%</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>229950</v>
+        <v>80782</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>411626</v>
+        <v>39800</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>155341</v>
+        <v>149995</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
